--- a/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_latest_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_latest_eval_20221_21001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-11-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-11-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-05-12 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-11-12 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-05-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-11-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-11-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-05-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-11-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-05-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-11-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-05-12 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-08-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-08-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-08-25 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-11-24 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-02-24 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-05-25 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-08-24 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-11-25 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-02-25 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,28 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.2127129242057834</v>
+        <v>-0.2909045670684483</v>
       </c>
       <c r="C2">
-        <v>0.8406387073136894</v>
+        <v>-0.3567782656421442</v>
       </c>
       <c r="D2">
-        <v>0.8030757380129937</v>
+        <v>0.6601440576230303</v>
       </c>
       <c r="E2">
-        <v>1.459272051117028</v>
+        <v>0.8976451259583875</v>
       </c>
       <c r="F2">
-        <v>1.364565482455779</v>
-      </c>
-      <c r="G2">
-        <v>0.8129958871076413</v>
-      </c>
-      <c r="H2">
-        <v>0.4835366100679694</v>
-      </c>
-      <c r="I2">
-        <v>0.6223713188746678</v>
+        <v>1.95286343612335</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2282405387460907</v>
+        <v>0.01014405762305309</v>
       </c>
       <c r="C3">
-        <v>0.8768952007400587</v>
+        <v>0.797645125958379</v>
       </c>
       <c r="D3">
-        <v>1.74938621340888</v>
+        <v>1.912863436123343</v>
       </c>
       <c r="E3">
-        <v>1.513798919738463</v>
+        <v>5.01232520416154</v>
       </c>
       <c r="F3">
-        <v>0.9159160700913869</v>
+        <v>0.05352112676055359</v>
       </c>
       <c r="G3">
-        <v>0.617601205077456</v>
+        <v>-0.3455362369745888</v>
       </c>
       <c r="H3">
-        <v>0.6963220581229216</v>
+        <v>-0.5179776588317392</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.2535884079931833</v>
+        <v>0.6528634361233525</v>
       </c>
       <c r="C4">
-        <v>0.1693862134088806</v>
+        <v>4.037325204161531</v>
       </c>
       <c r="D4">
-        <v>0.07379891973846298</v>
+        <v>-0.646478873239435</v>
       </c>
       <c r="E4">
-        <v>0.07616871370084576</v>
+        <v>-0.920536236974606</v>
       </c>
       <c r="F4">
-        <v>0.48</v>
-      </c>
-      <c r="G4">
-        <v>0.7563220581229215</v>
-      </c>
-      <c r="H4">
-        <v>0.6151022358111976</v>
-      </c>
-      <c r="I4">
-        <v>0.7382496413199389</v>
-      </c>
-      <c r="J4">
-        <v>0.4208208668968201</v>
-      </c>
-      <c r="K4">
-        <v>0.2378331735378737</v>
+        <v>-1.017977658831725</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.05938621340888062</v>
+        <v>-0.9464788732394463</v>
       </c>
       <c r="C5">
-        <v>0.08379891973846298</v>
+        <v>-0.4205362369745917</v>
       </c>
       <c r="D5">
-        <v>0.145700342116833</v>
+        <v>-1.067977658831736</v>
       </c>
       <c r="E5">
-        <v>0.551740489547953</v>
+        <v>-1.027482678983856</v>
       </c>
       <c r="F5">
-        <v>0.7784055272186445</v>
+        <v>-2.166685773243151</v>
       </c>
       <c r="G5">
-        <v>0.5243994393825868</v>
+        <v>-0.7149910233393171</v>
       </c>
       <c r="H5">
-        <v>0.6239663720678446</v>
-      </c>
-      <c r="I5">
-        <v>0.2801936586597118</v>
-      </c>
-      <c r="J5">
-        <v>0.0623358938698817</v>
+        <v>-0.4057012669481986</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2659209623231712</v>
+        <v>-0.2679776588317534</v>
       </c>
       <c r="C6">
-        <v>0.1410329794756187</v>
+        <v>-0.3074826789838432</v>
       </c>
       <c r="D6">
-        <v>0.4553446893433346</v>
+        <v>-1.966685773243148</v>
       </c>
       <c r="E6">
-        <v>0.8376958796239715</v>
+        <v>-0.7649910233393142</v>
       </c>
       <c r="F6">
-        <v>0.6314982204620873</v>
-      </c>
-      <c r="G6">
-        <v>0.683960398244768</v>
-      </c>
-      <c r="H6">
-        <v>0.2690107171243734</v>
-      </c>
-      <c r="I6">
-        <v>0.04846503628841559</v>
+        <v>-0.3557012669482157</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.1968165468794261</v>
+        <v>-1.066685773243157</v>
       </c>
       <c r="C7">
-        <v>0.18</v>
+        <v>-0.4649910233393313</v>
       </c>
       <c r="D7">
-        <v>0.6963220581229216</v>
+        <v>-0.3557012669482157</v>
       </c>
       <c r="E7">
-        <v>0.6051022358111976</v>
+        <v>-1.510754112840914</v>
       </c>
       <c r="F7">
-        <v>0.7182496413199388</v>
+        <v>0.05387973104869598</v>
       </c>
       <c r="G7">
-        <v>0.3108208668968201</v>
+        <v>-0.190774388924932</v>
       </c>
       <c r="H7">
-        <v>0.1478331735378737</v>
+        <v>0.4107573149741783</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.18</v>
+        <v>0.1442987330518014</v>
       </c>
       <c r="C8">
-        <v>0.5963220581229216</v>
+        <v>-1.510754112840897</v>
       </c>
       <c r="D8">
-        <v>0.5851022358111976</v>
+        <v>0.1288797310486932</v>
       </c>
       <c r="E8">
-        <v>0.8193973358249773</v>
+        <v>-0.04077438892494056</v>
       </c>
       <c r="F8">
-        <v>0.4840017612382889</v>
-      </c>
-      <c r="G8">
-        <v>0.1985167276061293</v>
-      </c>
-      <c r="H8">
-        <v>0.02551376466621769</v>
-      </c>
-      <c r="I8">
-        <v>0.468739117536998</v>
-      </c>
-      <c r="J8">
-        <v>0.2150495036779461</v>
+        <v>0.5107573149741726</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -698,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.3203220581229216</v>
+        <v>0.1288797310486932</v>
       </c>
       <c r="C9">
-        <v>0.399073580619837</v>
+        <v>-0.04077438892494056</v>
       </c>
       <c r="D9">
-        <v>0.6584860895603735</v>
+        <v>0.6107573149741726</v>
       </c>
       <c r="E9">
-        <v>0.4199954667063815</v>
+        <v>0.3848305540613202</v>
       </c>
       <c r="F9">
-        <v>0.25796253143471</v>
+        <v>0.4926462694578698</v>
       </c>
       <c r="G9">
-        <v>0.09329708057898056</v>
+        <v>0.3962466487935681</v>
       </c>
       <c r="H9">
-        <v>0.5099036351493167</v>
-      </c>
-      <c r="I9">
-        <v>0.24</v>
+        <v>0.8996575342465766</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -727,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.02259219534769386</v>
+        <v>-0.1892426850258274</v>
       </c>
       <c r="C10">
-        <v>0.4726075025682273</v>
+        <v>-0.1151694459386798</v>
       </c>
       <c r="D10">
-        <v>0.4921774159896865</v>
+        <v>0.09264626945786981</v>
       </c>
       <c r="E10">
-        <v>0.349825437837008</v>
+        <v>0.09624664879356809</v>
       </c>
       <c r="F10">
-        <v>0.1375541386104714</v>
-      </c>
-      <c r="G10">
-        <v>0.5604363747513331</v>
-      </c>
-      <c r="H10">
-        <v>0.3087982760018804</v>
+        <v>0.5996575342465766</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -753,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.516502163277469</v>
+        <v>-0.007353730542130191</v>
       </c>
       <c r="C11">
-        <v>0.4108208668968201</v>
+        <v>-0.1037533512064319</v>
       </c>
       <c r="D11">
-        <v>0.3378331735378737</v>
+        <v>0.5996575342465766</v>
       </c>
       <c r="E11">
-        <v>0.1537505981433559</v>
+        <v>0.9581794761700257</v>
       </c>
       <c r="F11">
-        <v>0.5999036351493168</v>
+        <v>-0.7658031088082881</v>
       </c>
       <c r="G11">
-        <v>0.32</v>
+        <v>-0.0121638924455868</v>
+      </c>
+      <c r="H11">
+        <v>0.3513800424628444</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -776,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.06635465832812365</v>
+        <v>-0.0003424657534233932</v>
       </c>
       <c r="C12">
-        <v>0.02783317353787368</v>
+        <v>0.7581794761700258</v>
       </c>
       <c r="D12">
-        <v>0.006750598143355879</v>
+        <v>-0.865803108808288</v>
       </c>
       <c r="E12">
-        <v>0.6299036351493167</v>
+        <v>-0.1121638924455868</v>
       </c>
       <c r="F12">
-        <v>0.4476495795507702</v>
+        <v>0.3513800424628444</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -796,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.03206295408682139</v>
+        <v>-0.2658031088082966</v>
       </c>
       <c r="C13">
-        <v>-0.1064852930713557</v>
+        <v>-0.09216389244558509</v>
       </c>
       <c r="D13">
-        <v>0.3603773643037867</v>
+        <v>0.2513800424628501</v>
       </c>
       <c r="E13">
-        <v>0.1088966743764388</v>
+        <v>-0.6493958024167794</v>
+      </c>
+      <c r="F13">
+        <v>0.4709797545368563</v>
+      </c>
+      <c r="G13">
+        <v>-0.05608015947960832</v>
+      </c>
+      <c r="H13">
+        <v>-0.2616861435726245</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -813,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.06681224444203063</v>
+        <v>0.1513800424628444</v>
       </c>
       <c r="C14">
-        <v>0.4107440146302961</v>
+        <v>-0.5493958024167851</v>
       </c>
       <c r="D14">
-        <v>0.1461563307127136</v>
+        <v>0.5209797545368677</v>
+      </c>
+      <c r="E14">
+        <v>0.04391984052040587</v>
+      </c>
+      <c r="F14">
+        <v>-0.1616861435726104</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -827,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.25708246933236</v>
+        <v>0.3209797545368506</v>
       </c>
       <c r="C15">
-        <v>0.09547648014918764</v>
+        <v>-0.1560801594795884</v>
+      </c>
+      <c r="D15">
+        <v>-0.3116861435726218</v>
+      </c>
+      <c r="E15">
+        <v>0.7374588381484971</v>
+      </c>
+      <c r="F15">
+        <v>0.001112494811135178</v>
+      </c>
+      <c r="G15">
+        <v>-0.01685731984305816</v>
+      </c>
+      <c r="H15">
+        <v>0.006547545697278667</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -838,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.5616861435726075</v>
+      </c>
+      <c r="C16">
+        <v>0.6374588381484886</v>
+      </c>
+      <c r="D16">
+        <v>-0.09888750518887335</v>
+      </c>
+      <c r="E16">
+        <v>-0.1168573198430667</v>
+      </c>
+      <c r="F16">
+        <v>-0.09345245430272986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.1011124948111295</v>
+      </c>
+      <c r="C17">
+        <v>-0.1168573198430667</v>
+      </c>
+      <c r="D17">
+        <v>-0.1134524543027259</v>
+      </c>
+      <c r="E17">
+        <v>-0.4786268900694667</v>
+      </c>
+      <c r="F17">
+        <v>0.1771926271014855</v>
+      </c>
+      <c r="G17">
+        <v>0.04632174616006179</v>
+      </c>
+      <c r="H17">
+        <v>-0.0631960527640601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.04345245430273265</v>
+      </c>
+      <c r="C18">
+        <v>-0.4296268900694601</v>
+      </c>
+      <c r="D18">
+        <v>0.2261926271014921</v>
+      </c>
+      <c r="E18">
+        <v>0.09532174616006839</v>
+      </c>
+      <c r="F18">
+        <v>-0.0141960527640535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.1171926271014832</v>
+      </c>
+      <c r="C19">
+        <v>0.08632174616005384</v>
+      </c>
+      <c r="D19">
+        <v>-0.02319605276406805</v>
+      </c>
+      <c r="E19">
+        <v>-0.8129738398316293</v>
+      </c>
+      <c r="F19">
+        <v>-0.2324480506629815</v>
+      </c>
+      <c r="G19">
+        <v>-0.3158341520927615</v>
+      </c>
+      <c r="H19">
+        <v>-0.5337440296325202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.0131960527640772</v>
+      </c>
+      <c r="C20">
+        <v>-0.8929738398316134</v>
+      </c>
+      <c r="D20">
+        <v>-0.3124480506629657</v>
+      </c>
+      <c r="E20">
+        <v>-0.3958341520927456</v>
+      </c>
+      <c r="F20">
+        <v>-0.6137440296325043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.01244805066298271</v>
+      </c>
+      <c r="C21">
+        <v>-0.195834152092757</v>
+      </c>
+      <c r="D21">
+        <v>-0.5137440296325242</v>
+      </c>
+      <c r="E21">
+        <v>1.000033774003649</v>
+      </c>
+      <c r="F21">
+        <v>-0.3359499320784147</v>
+      </c>
+      <c r="G21">
+        <v>1.104664484451714</v>
+      </c>
+      <c r="H21">
+        <v>0.004220370190890887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.4637440296324986</v>
+      </c>
+      <c r="C22">
+        <v>1.050033774003646</v>
+      </c>
+      <c r="D22">
+        <v>-0.2859499320784175</v>
+      </c>
+      <c r="E22">
+        <v>1.154664484451711</v>
+      </c>
+      <c r="F22">
+        <v>0.0542203701908881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1.250033774003649</v>
+      </c>
+      <c r="C23">
+        <v>-0.1709499320783942</v>
+      </c>
+      <c r="D23">
+        <v>1.203664484451731</v>
+      </c>
+      <c r="E23">
+        <v>0.0542203701908881</v>
+      </c>
+      <c r="F23">
+        <v>-0.05605402797877324</v>
+      </c>
+      <c r="G23">
+        <v>0.4424901754049486</v>
+      </c>
+      <c r="H23">
+        <v>0.1168215346297342</v>
+      </c>
+      <c r="I23">
+        <v>0.8340013360053379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.4859499320784204</v>
+      </c>
+      <c r="C24">
+        <v>1.054664484451731</v>
+      </c>
+      <c r="D24">
+        <v>-0.045779629809092</v>
+      </c>
+      <c r="E24">
+        <v>-0.107054027978761</v>
+      </c>
+      <c r="F24">
+        <v>0.4424901754049486</v>
+      </c>
+      <c r="G24">
+        <v>0.0658215346297607</v>
+      </c>
+      <c r="H24">
+        <v>0.7830013360053644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1.154664484451696</v>
+      </c>
+      <c r="C25">
+        <v>0.0542203701908881</v>
+      </c>
+      <c r="D25">
+        <v>-0.107054027978761</v>
+      </c>
+      <c r="E25">
+        <v>0.4424901754049486</v>
+      </c>
+      <c r="F25">
+        <v>0.0658215346297607</v>
+      </c>
+      <c r="G25">
+        <v>0.6840013360053606</v>
+      </c>
+      <c r="H25">
+        <v>2.329873611643036</v>
+      </c>
+      <c r="I25">
+        <v>9.174120406567614</v>
+      </c>
+      <c r="J25">
+        <v>-8.376533676533697</v>
+      </c>
+      <c r="K25">
+        <v>-0.66713707687755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.2457796298090977</v>
+      </c>
+      <c r="C26">
+        <v>-0.2560540279787675</v>
+      </c>
+      <c r="D26">
+        <v>0.3424901754049628</v>
+      </c>
+      <c r="E26">
+        <v>-0.08317846537025159</v>
+      </c>
+      <c r="F26">
+        <v>0.634001336005352</v>
+      </c>
+      <c r="G26">
+        <v>2.329873611643053</v>
+      </c>
+      <c r="H26">
+        <v>9.174120406567631</v>
+      </c>
+      <c r="I26">
+        <v>-8.376533676533679</v>
+      </c>
+      <c r="J26">
+        <v>-0.6671370768775329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.5560540279787732</v>
+      </c>
+      <c r="C27">
+        <v>0.2424901754049457</v>
+      </c>
+      <c r="D27">
+        <v>-0.03317846537024305</v>
+      </c>
+      <c r="E27">
+        <v>0.6840013360053606</v>
+      </c>
+      <c r="F27">
+        <v>2.379873611643061</v>
+      </c>
+      <c r="G27">
+        <v>9.224120406567639</v>
+      </c>
+      <c r="H27">
+        <v>-8.326533676533671</v>
+      </c>
+      <c r="I27">
+        <v>-0.6171370768775243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.1575098245950372</v>
+      </c>
+      <c r="C28">
+        <v>-0.08317846537025159</v>
+      </c>
+      <c r="D28">
+        <v>0.634001336005352</v>
+      </c>
+      <c r="E28">
+        <v>2.329873611643053</v>
+      </c>
+      <c r="F28">
+        <v>9.174120406567631</v>
+      </c>
+      <c r="G28">
+        <v>-8.376533676533679</v>
+      </c>
+      <c r="H28">
+        <v>-0.6671370768775329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.4831784653702459</v>
+      </c>
+      <c r="C29">
+        <v>0.4340013360053464</v>
+      </c>
+      <c r="D29">
+        <v>2.279873611643053</v>
+      </c>
+      <c r="E29">
+        <v>9.223120406567634</v>
+      </c>
+      <c r="F29">
+        <v>-8.327533676533676</v>
+      </c>
+      <c r="G29">
+        <v>-0.6181370768775289</v>
+      </c>
+      <c r="H29">
+        <v>0.9647755840093826</v>
+      </c>
+      <c r="I29">
+        <v>-2.001511408339873</v>
+      </c>
+      <c r="J29">
+        <v>0.2625197463245897</v>
+      </c>
+      <c r="K29">
+        <v>-0.1886344086021489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.414001336005393</v>
+      </c>
+      <c r="C30">
+        <v>2.269873611643048</v>
+      </c>
+      <c r="D30">
+        <v>9.164120406567623</v>
+      </c>
+      <c r="E30">
+        <v>-8.346533676533667</v>
+      </c>
+      <c r="F30">
+        <v>-0.6271370768775294</v>
+      </c>
+      <c r="G30">
+        <v>1.015775584009385</v>
+      </c>
+      <c r="H30">
+        <v>-1.950511408339871</v>
+      </c>
+      <c r="I30">
+        <v>0.2935197463245814</v>
+      </c>
+      <c r="J30">
+        <v>-0.1976344086021493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.129873611643047</v>
+      </c>
+      <c r="C31">
+        <v>4.374120406567602</v>
+      </c>
+      <c r="D31">
+        <v>-6.676533676533722</v>
+      </c>
+      <c r="E31">
+        <v>0.7328629231224563</v>
+      </c>
+      <c r="F31">
+        <v>2.115775584009365</v>
+      </c>
+      <c r="G31">
+        <v>-1.350511408339849</v>
+      </c>
+      <c r="H31">
+        <v>0.2956936523014704</v>
+      </c>
+      <c r="I31">
+        <v>-0.1956967400967722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-3.02587959343237</v>
+      </c>
+      <c r="C32">
+        <v>-1.776533676533679</v>
+      </c>
+      <c r="D32">
+        <v>2.832862923122467</v>
+      </c>
+      <c r="E32">
+        <v>2.815775584009379</v>
+      </c>
+      <c r="F32">
+        <v>-1.250511408339877</v>
+      </c>
+      <c r="G32">
+        <v>0.4135197463245859</v>
+      </c>
+      <c r="H32">
+        <v>-0.1376344086021527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-2.036533676533679</v>
+      </c>
+      <c r="C33">
+        <v>1.784984210082074</v>
+      </c>
+      <c r="D33">
+        <v>1.972510919502449</v>
+      </c>
+      <c r="E33">
+        <v>-1.525511408339874</v>
+      </c>
+      <c r="F33">
+        <v>0.4135197463245717</v>
+      </c>
+      <c r="G33">
+        <v>-0.1452171308856487</v>
+      </c>
+      <c r="H33">
+        <v>-0.2887506797459092</v>
+      </c>
+      <c r="I33">
+        <v>0.2381594816468817</v>
+      </c>
+      <c r="J33">
+        <v>0.097005094808012</v>
+      </c>
+      <c r="K33">
+        <v>0.7406577100741492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-1.367137076877539</v>
+      </c>
+      <c r="C34">
+        <v>1.204219561336467</v>
+      </c>
+      <c r="D34">
+        <v>0.2494885916601319</v>
+      </c>
+      <c r="E34">
+        <v>0.6195614389645712</v>
+      </c>
+      <c r="F34">
+        <v>0.0621175955729063</v>
+      </c>
+      <c r="G34">
+        <v>-0.2140660704403031</v>
+      </c>
+      <c r="H34">
+        <v>0.2878484742645668</v>
+      </c>
+      <c r="I34">
+        <v>0.1378190375352956</v>
+      </c>
+      <c r="J34">
+        <v>0.7733237759260956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.0937044159906204</v>
+      </c>
+      <c r="C35">
+        <v>-0.2941014083398632</v>
+      </c>
+      <c r="D35">
+        <v>1.762519746324576</v>
+      </c>
+      <c r="E35">
+        <v>0.3188255913978457</v>
+      </c>
+      <c r="F35">
+        <v>-0.1909784721161268</v>
+      </c>
+      <c r="G35">
+        <v>0.3054705387460908</v>
+      </c>
+      <c r="H35">
+        <v>0.1393115920068167</v>
+      </c>
+      <c r="I35">
+        <v>0.7753562134088806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.040511408339861</v>
+      </c>
+      <c r="C36">
+        <v>3.473519746324588</v>
+      </c>
+      <c r="D36">
+        <v>0.9627584947524843</v>
+      </c>
+      <c r="E36">
+        <v>-0.1912661412766812</v>
+      </c>
+      <c r="F36">
+        <v>0.3097957738457883</v>
+      </c>
+      <c r="G36">
+        <v>0.1370148401722565</v>
+      </c>
+      <c r="H36">
+        <v>0.7744984558390173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.433519746324596</v>
+      </c>
+      <c r="C37">
+        <v>0.7623655913978302</v>
+      </c>
+      <c r="D37">
+        <v>0.9820015278838731</v>
+      </c>
+      <c r="E37">
+        <v>1.018240538746091</v>
+      </c>
+      <c r="F37">
+        <v>0.4164115920068167</v>
+      </c>
+      <c r="G37">
+        <v>0.8393862134088805</v>
+      </c>
+      <c r="H37">
+        <v>0.733798919738463</v>
+      </c>
+      <c r="I37">
+        <v>0.3261687137008458</v>
+      </c>
+      <c r="J37">
+        <v>0.21</v>
+      </c>
+      <c r="K37">
+        <v>0.4863220581229216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.077634408602145</v>
+      </c>
+      <c r="C38">
+        <v>-0.6879984721161269</v>
+      </c>
+      <c r="D38">
+        <v>2.18824053874609</v>
+      </c>
+      <c r="E38">
+        <v>1.456411592006817</v>
+      </c>
+      <c r="F38">
+        <v>1.159386213408881</v>
+      </c>
+      <c r="G38">
+        <v>1.003798919738463</v>
+      </c>
+      <c r="H38">
+        <v>0.3961687137008458</v>
+      </c>
+      <c r="I38">
+        <v>0.26</v>
+      </c>
+      <c r="J38">
+        <v>0.5363220581229216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>-0.2127129242057834</v>
+      </c>
+      <c r="C39">
+        <v>0.8406387073136894</v>
+      </c>
+      <c r="D39">
+        <v>0.8030757380129937</v>
+      </c>
+      <c r="E39">
+        <v>1.459272051117028</v>
+      </c>
+      <c r="F39">
+        <v>1.364565482455779</v>
+      </c>
+      <c r="G39">
+        <v>0.8129958871076413</v>
+      </c>
+      <c r="H39">
+        <v>0.4835366100679694</v>
+      </c>
+      <c r="I39">
+        <v>0.6223713188746678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.2282405387460907</v>
+      </c>
+      <c r="C40">
+        <v>0.8768952007400587</v>
+      </c>
+      <c r="D40">
+        <v>1.74938621340888</v>
+      </c>
+      <c r="E40">
+        <v>1.513798919738463</v>
+      </c>
+      <c r="F40">
+        <v>0.9159160700913869</v>
+      </c>
+      <c r="G40">
+        <v>0.617601205077456</v>
+      </c>
+      <c r="H40">
+        <v>0.6963220581229216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>-0.2535884079931833</v>
+      </c>
+      <c r="C41">
+        <v>0.1693862134088806</v>
+      </c>
+      <c r="D41">
+        <v>0.07379891973846298</v>
+      </c>
+      <c r="E41">
+        <v>0.07616871370084576</v>
+      </c>
+      <c r="F41">
+        <v>0.48</v>
+      </c>
+      <c r="G41">
+        <v>0.7563220581229215</v>
+      </c>
+      <c r="H41">
+        <v>0.6151022358111976</v>
+      </c>
+      <c r="I41">
+        <v>0.7382496413199389</v>
+      </c>
+      <c r="J41">
+        <v>0.4208208668968201</v>
+      </c>
+      <c r="K41">
+        <v>0.2378331735378737</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.05938621340888062</v>
+      </c>
+      <c r="C42">
+        <v>0.08379891973846298</v>
+      </c>
+      <c r="D42">
+        <v>0.145700342116833</v>
+      </c>
+      <c r="E42">
+        <v>0.551740489547953</v>
+      </c>
+      <c r="F42">
+        <v>0.7784055272186445</v>
+      </c>
+      <c r="G42">
+        <v>0.5243994393825868</v>
+      </c>
+      <c r="H42">
+        <v>0.6239663720678446</v>
+      </c>
+      <c r="I42">
+        <v>0.2801936586597118</v>
+      </c>
+      <c r="J42">
+        <v>0.0623358938698817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.2659209623231712</v>
+      </c>
+      <c r="C43">
+        <v>0.1410329794756187</v>
+      </c>
+      <c r="D43">
+        <v>0.4553446893433346</v>
+      </c>
+      <c r="E43">
+        <v>0.8376958796239715</v>
+      </c>
+      <c r="F43">
+        <v>0.6314982204620873</v>
+      </c>
+      <c r="G43">
+        <v>0.683960398244768</v>
+      </c>
+      <c r="H43">
+        <v>0.2690107171243734</v>
+      </c>
+      <c r="I43">
+        <v>0.04846503628841559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.1968165468794261</v>
+      </c>
+      <c r="C44">
+        <v>0.18</v>
+      </c>
+      <c r="D44">
+        <v>0.6963220581229216</v>
+      </c>
+      <c r="E44">
+        <v>0.6051022358111976</v>
+      </c>
+      <c r="F44">
+        <v>0.7182496413199388</v>
+      </c>
+      <c r="G44">
+        <v>0.3108208668968201</v>
+      </c>
+      <c r="H44">
+        <v>0.1478331735378737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>-0.18</v>
+      </c>
+      <c r="C45">
+        <v>0.5963220581229216</v>
+      </c>
+      <c r="D45">
+        <v>0.5851022358111976</v>
+      </c>
+      <c r="E45">
+        <v>0.8193973358249773</v>
+      </c>
+      <c r="F45">
+        <v>0.4840017612382889</v>
+      </c>
+      <c r="G45">
+        <v>0.1985167276061293</v>
+      </c>
+      <c r="H45">
+        <v>0.02551376466621769</v>
+      </c>
+      <c r="I45">
+        <v>0.468739117536998</v>
+      </c>
+      <c r="J45">
+        <v>0.2150495036779461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.3203220581229216</v>
+      </c>
+      <c r="C46">
+        <v>0.399073580619837</v>
+      </c>
+      <c r="D46">
+        <v>0.6584860895603735</v>
+      </c>
+      <c r="E46">
+        <v>0.4199954667063815</v>
+      </c>
+      <c r="F46">
+        <v>0.25796253143471</v>
+      </c>
+      <c r="G46">
+        <v>0.09329708057898056</v>
+      </c>
+      <c r="H46">
+        <v>0.5099036351493167</v>
+      </c>
+      <c r="I46">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.02259219534769386</v>
+      </c>
+      <c r="C47">
+        <v>0.4726075025682273</v>
+      </c>
+      <c r="D47">
+        <v>0.4921774159896865</v>
+      </c>
+      <c r="E47">
+        <v>0.349825437837008</v>
+      </c>
+      <c r="F47">
+        <v>0.1375541386104714</v>
+      </c>
+      <c r="G47">
+        <v>0.5604363747513331</v>
+      </c>
+      <c r="H47">
+        <v>0.3087982760018804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.516502163277469</v>
+      </c>
+      <c r="C48">
+        <v>0.4108208668968201</v>
+      </c>
+      <c r="D48">
+        <v>0.3378331735378737</v>
+      </c>
+      <c r="E48">
+        <v>0.1537505981433559</v>
+      </c>
+      <c r="F48">
+        <v>0.5999036351493168</v>
+      </c>
+      <c r="G48">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>-0.06635465832812365</v>
+      </c>
+      <c r="C49">
+        <v>0.02783317353787368</v>
+      </c>
+      <c r="D49">
+        <v>0.006750598143355879</v>
+      </c>
+      <c r="E49">
+        <v>0.6299036351493167</v>
+      </c>
+      <c r="F49">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.03206295408682139</v>
+      </c>
+      <c r="C50">
+        <v>-0.1064852930713557</v>
+      </c>
+      <c r="D50">
+        <v>0.3603773643037867</v>
+      </c>
+      <c r="E50">
+        <v>0.1088966743764388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>-0.06681224444203063</v>
+      </c>
+      <c r="C51">
+        <v>0.4107440146302961</v>
+      </c>
+      <c r="D51">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.25708246933236</v>
+      </c>
+      <c r="C52">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>0.0959495356205764</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_latest_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_latest_eval_20221_21001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Q0</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025-08-22 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-11-25 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,6 +844,11 @@
         <v>0.0959495356205764</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
